--- a/files/eval_questions.xlsx
+++ b/files/eval_questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feryelbenrhaiem/Documents/1. MScIS/Thesis/4. data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/feryelbenrhaiem/Documents/1. MScIS/Thesis/evals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75194BAA-B7FE-8D42-BAEC-8D911C41C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5F5ECF-F68C-544B-8A03-7103CCF58B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{6D84C0D8-6755-CD41-924F-2F97722172E9}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{2BF163BF-44AC-BA40-8331-7883C0179DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,75 +36,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
   <si>
+    <t>How does Philip Morris International collect information about me?</t>
+  </si>
+  <si>
+    <t>Philip Morris International (PMI) collects information about you in multiple ways. Primarily, information is gathered directly from you when you engage with their digital platforms, such as signing up for newsletters, submitting content, or contacting them via email or phone. Additionally, PMI automatically collects data through tracking technologies like cookies when you interact with their websites or emails. This automatic collection includes details about your device, your interaction with their services, and usage patterns.</t>
+  </si>
+  <si>
+    <t>What types of information does Philip Morris International collect about me?</t>
+  </si>
+  <si>
+    <t>PMI collects a variety of information, which includes your contact details, preferences, and interests, as well as data regarding your interactions with their digital platforms. This may include your name, email address, location, and details about your visits to PMI websites or usage of their mobile applications. The information is gathered both directly from you, such as through forms you fill out, and automatically via tracking technologies that monitor your activity across their digital touchpoints.</t>
+  </si>
+  <si>
+    <t>How does Philip Morris International use the information it collects about me?</t>
+  </si>
+  <si>
+    <t>The information collected by PMI is used for several purposes. These include ensuring compliance with regulatory obligations, administering your interactions with their services, personalizing your experience on their digital platforms, and conducting business analytics to improve their products and services. Additionally, PMI uses the data to prevent fraud, maintain security, and enhance their business operations.</t>
+  </si>
+  <si>
+    <t>With whom does Philip Morris International share my information, and for what purposes?</t>
+  </si>
+  <si>
+    <t>PMI shares your information with its affiliates, third-party service providers, and, where necessary, government authorities. This sharing is done in accordance with applicable laws, and often for purposes such as fulfilling service requests, complying with legal requirements, or enhancing customer service across different regions. For instance, information may be shared with affiliates in different countries to ensure that your preferences are respected when you travel.</t>
+  </si>
+  <si>
+    <t>How does Philip Morris International protect my information from unauthorized access?</t>
+  </si>
+  <si>
+    <t>PMI employs a range of technical and organizational measures to safeguard your personal information against unauthorized access, alteration, or destruction. These measures include the use of encryption technologies and strict data privacy policies, which are also enforced with their service providers to ensure consistent protection.</t>
+  </si>
+  <si>
+    <t>How long does Philip Morris International retain my information?</t>
+  </si>
+  <si>
+    <t>The retention period for your information depends on the purpose for which it was collected. PMI typically retains data for as long as necessary to fulfill the stated purposes, after which it is deleted. In some cases, legal obligations may require PMI to retain data for longer periods. You have the right to request the deletion of your information, subject to these legal obligations.</t>
+  </si>
+  <si>
+    <t>What rights do I have regarding the information Philip Morris International holds about me?</t>
+  </si>
+  <si>
+    <t>Depending on your location, you may have rights such as accessing, correcting, or deleting your personal information. You can also request the restriction of processing, object to the processing, withdraw your consent, or request data portability. PMI provides mechanisms to easily exercise these rights, such as through unsubscribe links or direct contact options.</t>
+  </si>
+  <si>
+    <t>How can I exercise my rights regarding my information held by Philip Morris International?</t>
+  </si>
+  <si>
+    <t>To exercise your data rights, such as accessing or deleting your information, you can contact the relevant PMI affiliate directly. Contact details are typically provided in communications from PMI or can be found on their website. Additionally, if your country has a data protection authority, you have the right to contact them with any concerns regarding PMI’s handling of your information.</t>
+  </si>
+  <si>
+    <t>Are there any specific regulations or additional rights I should be aware of based on my location?</t>
+  </si>
+  <si>
+    <t>Yes, specific data protection rights and regulations vary depending on your country. For instance, in Australia, you have the right to access and correct your personal information and to lodge complaints regarding privacy concerns. In France, you can provide instructions on how your data should be handled after your death. Other countries, such as the Philippines, Taiwan, and Switzerland, also have additional regulations that may affect how your data is processed and protected by PMI. It’s important to refer to the specific privacy policies applicable to your location for detailed information.</t>
+  </si>
+  <si>
+    <t>Do you think Philip Morris International's approach to data collection respects user privacy?</t>
+  </si>
+  <si>
+    <t>Philip Morris International implements its data collection practices in accordance with applicable laws and regulations. The company collects personal information only for specific purposes, such as providing services, improving customer experiences, and fulfilling legal obligations. PMI also takes measures to ensure that this information is protected against unauthorized access or misuse. While the company’s practices are designed to respect user privacy within the scope of its business operations, individual perspectives on privacy can vary.</t>
+  </si>
+  <si>
+    <t>Is the data retention policy of Philip Morris International fair to its users?</t>
+  </si>
+  <si>
+    <t>Philip Morris International’s data retention policy is intended to retain personal information only for as long as necessary to fulfill the purposes for which it was collected, or as required by law. The policy provides for the deletion of data once it is no longer needed, and users have certain rights, such as the right to request the deletion of their data. The policy is structured to balance the company’s operational needs with the protection of user data, while ensuring compliance with relevant legal requirements. This approach is designed to be fair, though perceptions of fairness may differ.</t>
+  </si>
+  <si>
     <t>Answer</t>
-  </si>
-  <si>
-    <t>How does Philip Morris International collect information about me?</t>
-  </si>
-  <si>
-    <t>What types of information does Philip Morris International collect about me?</t>
-  </si>
-  <si>
-    <t>How does Philip Morris International use the information it collects about me?</t>
-  </si>
-  <si>
-    <t>With whom does Philip Morris International share my information, and for what purposes?</t>
-  </si>
-  <si>
-    <t>How does Philip Morris International protect my information from unauthorized access?</t>
-  </si>
-  <si>
-    <t>How long does Philip Morris International retain my information?</t>
-  </si>
-  <si>
-    <t>What rights do I have regarding the information Philip Morris International holds about me?</t>
-  </si>
-  <si>
-    <t>How can I exercise my rights regarding my information held by Philip Morris International?</t>
-  </si>
-  <si>
-    <t>Are there any specific regulations or additional rights I should be aware of based on my location?</t>
-  </si>
-  <si>
-    <t>"We may collect information about you in various ways.  •  You may provide us with information directly (e.g. if you register to receive PMI press releases or e-mail alerts; when you submit content to a digital PMI touchpoint, or fill in a form, or make a call to us).  •  We may collect information automatically (e.g. when you use a PMI app or website).  In this notice, we refer to the methods by which you are in contact with us, e.g. apps, websites and e-mails, as “PMI touchpoints”.  We may collect information that you provide directly. Typically this will happen when you:  •  sign up to be a member of our databases (for example if you register to receive PMI press releases or e-mail alerts);  •  submit content to a digital PMI touchpoint;  •  contact us through a touchpoint, or by e-mail, social media or telephone; or  •  participate in PMI surveys.  We may collect information about you automatically. Typically this will happen when you:  •  communicate with us (for example, through a touchpoint; or social media platforms); or  •  use PMI touchpoints (e.g. through tracking mechanisms in an app or a website).  •  use PMI touchpoints (for example, through tracking mechanisms (such as cookies and web beacons/pixels) that you receive when you use the PMI touchpoint or get an e-mail from us);  •  use third party websites (for example, using technology similar to that described in the bullet above, that you receive when you visit a PMI touchpoint or get an e-mail from us);  As mentioned above, we may collect information about you automatically through the use of cookies and similar tracking technologies (such as web beacons/pixels) that you receive when you visit digital PMI touchpoints or get an e-mail from us. The specific cookies and other mechanisms used will depend on the PMI touchpoint in question. To learn about these mechanisms used on a touchpoint, including how you can accept or refuse cookies, please see the information made available on or through that touchpoint. These mechanisms may include Google analytics cookies (see www.google.com/policies/privacy/partners/).  We may also collect information in other contexts made apparent to you at the time."</t>
-  </si>
-  <si>
-    <t>"We may collect various types of information about you:  •  information necessary to provide you with press releases or e-mail alerts  •  information you give us when you submit content to a digital PMI touchpoint  •  information about your visits to PMI touchpoints  •  information you give us in calls you make to switchboards or call centres  •  information about your preferences and interests  •  information necessary to verify your identity and age  Information that we collect from you directly will be apparent from the context in which you provide it. For example:  •  if you submit content to a digital PMI touchpoint, you may provide your name, username, contact, image, location, interests and preferences;  •  you may provide information on your preferences and interests so that we can offer you updates and services that will interest you;  •  we may collect information that enables us to verify your identity and age.  Information that we collect automatically will generally concern:  •  details of your visit or call (such as time and duration);  •  your use of digital PMI touchpoints (such as the pages you visit, the page from which you came, and the page to which you went when you left, search terms entered, or links clicked within the touchpoint, when you first open the touchpoint, for how long you use it, and how you interact with messages or advertisements we send you); we may use cookies and similar tracking technologies (such as pixels/web beacons) to do this;  •  your use of third party websites, where the information collected will be similar to that described in the bullet above (we may use cookies and similar tracking technologies (such as pixels/web beacons) to do this); and  •  your mobile or desktop device and software (such as your IP address or unique device identifier (for example, mobile advertising identifier (MAID) or Android ID (SSAID)), location data (either derived from your IP address or if you choose to share your precise location with us for specified purposes, e.g. store locator), device brand and model, the display settings of your monitor, web browser type, operating system, (some of which may be used in “digital fingerprinting” (see for what purposes we use information about you, below)) and details of any cookies (or similar technologies) that we may have stored on your device). Information that we collect from third parties will generally consist of publicly-available profile information (such as your preferences and interests), for example from public social media posts."</t>
-  </si>
-  <si>
-    <t>"In this section, we describe the purposes for which we use personal information. However, this is a global notice, and where the laws of a country restrict or prohibit certain activities described in this notice, we will not use information about you for those purposes in that country. Subject to the above, we use information about you for the following purposes: • To comply with regulatory obligations, such as (where appropriate) verifying your age • To administer our contract for user generated content with you (where you submit content to a digital PMI touchpoint) • To provide you with, and customise your experiences of, press releases and e-mail alerts • To understand whether you are still engaged with our communications and whether you wish to continue to receive them • To enable you to use PMI touchpoints, and to customize your experiences of PMI touchpoints • For general business administration, and to support all the above, including administering your accounts, corresponding with you, managing your appointments with us or with someone supporting us, fraud prevention (for example in the context of our events and surveys, to ensure that they are not attended/taken more than once by the same person, or in the context of e-commerce to protect cardholder information), personnel training and quality control, and administration and troubleshooting • For business analytics, statistical or scientific purposes, and improvements, including improving PMI products and services, PMI touchpoints and events, and the information that we (or our affiliates) provide to those interested in our companies • For other purposes that we notify you of, or will be clear from the context, at the point information about you is first collected The legal basis for our use of information about you is one of the following (which we explain in more detail in the “find out more” section): • compliance with a legal obligation to which we are subject; • the performance of a contract to which you are a party; • a legitimate business interest that is not overridden by interests you have to protect the information; • where none of the above applies, or where law requires it, your consent (which we will ask for before we process the information). The purposes for which we use information about you, with corresponding methods of collection and legal basis for use, are: Purpose: Comply with regulatory obligations Methods of collection: verify your age. Legal basis for processing: This information is generally provided to us by you directly. We use it because it is necessary for us to comply with legal obligations, in certain areas of our business, to deal only with adults, or, in countries where there is no such legal obligation, because we have a legitimate business interest to deal only with adults, that is not overridden by your interests, rights and freedoms to protect information about you. - Purpose: Deliver, and customize your experience of, PMI touchpoints, press releases and mail alerts Methods of collection: enabling you to use PMI touchpoints (for example, allowing you to remain logged in to sections of a touchpoint that are reserved for authorized users only, administering your language preference). Delivering PMI press releases and mail alerts and corresponding with you. Customizing your experience of PMI touchpoints (for example, to personalize your visit, such as with greetings or suggestions that might interest you). Understand whether you are still engaged with our communications and updates and whether you wish to continue to receive them. Administering your accounts and troubleshooting. Fraud prevention (for example in the context of our events and surveys, to ensure that they are not attended/taken more than once by the same person, or in the context of e-commerce to protect cardholder information) Legal basis for processing: This information is typically a combination of information that you provide to us by you directly (for example, your name and contact and social media details), and information that we collect automatically (for example, using technology (such as cookies and web beacons/pixels) to monitor your use of PMI touchpoints and e-mails from us), and using similar technology to monitor your use of third party touchpoints, and “digital fingerprinting” as described above; and (where permitted by law) information that we acquire from third parties (such as public social media posts). We use it on the grounds that we have a legitimate business interest to operate PMI touchpoints, to customize your experiences, to understand whether you wish to continue to receive our communications and updates, and prevent fraud, in these ways that is not overridden by your interests, rights and freedoms to protect information about you. - Purpose: Administer our contract for user generated content with you (where applicable) Methods of collection: where you submit content to a digital PMI touchpoint, we use information about you and the content you submit to fulfil, and in accordance with, our user generated content terms. Legal basis for processing: This information is generally provided to us by you directly. We use it because it is necessary for us to fulfil our contract with you and because we have a legitimate business interest to administer our relationship, market our products (including by using any content you submit to a digital PMI touchpoint), and to operate PMI touchpoints that is not overridden by your interests, rights and freedoms to protect information about you. - Purpose: Business administration Methods of collection: General organizational management and business record keeping. Administering and running events. Correspondence in relation to our relationship with you, including to deal with your inquiries and requests. IT systems development, implementation, operation and maintenance. Maintaining the security of systems and devices. The operation of contact databases. Legal basis for processing: We will generally receive the information from you directly. We use it because we have a legitimate business interest to run our business, manage our relationship with you and maintain the security and integrity of our IT systems that is not overridden by your interests, rights and freedoms to restrict use of information about you. - Purpose: Security and systems monitoring Methods of collection: authentication and access controls and logs, where applicable. Legal basis for processing: This information is collected automatically through various means such as automated systems and device monitoring. We use it because we have a legitimate business interest in ensuring the confidentiality, integrity and security of our digital infrastructure that is not overridden by your interests, rights and freedoms to protect information about you. - Purpose: Business analytics and improvements Methods of collection: for business analytics, statistical or scientific purposes (including for improving PMI products, services, outlets that sell PMI products, events, digital PMI touchpoints and the information that we (or our affiliates) provide to our customers). Legal basis for processing: This will typically be a combination of information that you provide to us (such as information from your communications with PMI touchpoints; or demographic information, e.g. your age, gender and the city where you live); information that we collect automatically (which may include information received from cookies, pixels and similar technologies); and (where permitted by law) information that we acquire from third parties. Where we have more than one type of information from these categories, we will combine them to improve our analysis. We use it on the grounds that either: we have your consent to do this; or we have a legitimate business interest to analyze and to improve our business performance, our products, PMI touchpoints, outlets and events, and to invite others to get involved in promoting PMI products, that is not overridden by interests, rights and freedoms to protect information about you. - Where we do not base our use of information about you on one of the above legal bases, or where law requires it, we will ask for your consent before we process the information (these cases will be clear from the context). In some instances, we may use information about you in ways that are not described above. Where this is the case, we will provide a supplemental privacy notice that explains such use. You should read any supplemental notice in conjunction with this notice."</t>
-  </si>
-  <si>
-    <t>"We may share information about you with:  •  PMI affiliates;  •  third parties who provide PMI affiliates or you with products or services;  •  other third parties, where required or permitted by law.  We share information about you with others only in accordance with applicable laws. Thus, where law requires your consent, we will first ask for it.  Sharing data with other PMI affiliates  •  Information about you will be shared with Philip Morris Products S.A. (based in Neuchâtel, Switzerland), which is the place of central administration of personal data processing for PMI affiliates. Philip Morris Products S.A. processes the information about you for all the purposes described in this notice.  •  Information about you may be shared with the PMI affiliate that is responsible for the country in which you live (if it wasn’t the PMI affiliate that first collected the information) for all the purposes described in this notice.  •  Information about you may be shared with any other PMI affiliate that you contact (for example, if you travel and you want to know about a PMI affiliate’s activities in another country) in order to enhance our service to you.  Details of PMI affiliates and the countries in which they are established are available.  Country-specific additional points  According to which country you are in, we want you to be aware of some further points.  If you are in Japan, find out more…  If you are in Japan, note that we share information about you, for the purposes described in this notice, with other PMI affiliates on the basis of “joint use” under Japanese data protection laws. When we do this, Philip Morris Japan Limited (PMJ) continues to manage your personal information responsibly, and we require those with whom we share the data to do the same. Further, if they are located outside Japan, we take reasonable measures in accordance with the relevant laws and regulations.  Sharing data with Third Parties  •  To the extent permitted by applicable law, we may share information about you with third parties who provide PMI affiliates or you with products or services (such as advisers, payment service providers, delivery providers, information services providers and age verification providers).  •  We may share information about you with other third parties, where required or permitted by law, for example: regulatory authorities; government departments; in response to a request from law enforcement authorities or other government officials; when we consider disclosure to be necessary or appropriate to prevent physical harm or financial loss or in connection with an investigation of suspected or actual illegal activity; and in the context of organisational restructuring."</t>
-  </si>
-  <si>
-    <t>"We implement appropriate technical and organisational measures to protect personal information that we hold from unauthorised disclosure, use, alteration or destruction. Where appropriate, we use encryption and other technologies that can assist in securing the information you provide. We also require our service providers to comply with strict data privacy and security requirements."</t>
-  </si>
-  <si>
-    <t>"We will retain information about you for the period necessary to fulfil the purposes for which the information was collected. After that, we will delete it. The period will vary depending on the purposes for which the information was collected. Note that in some circumstances, you have the right to request us to delete the information. Also, we are sometimes legally obliged to retain the information, for example, for tax and accounting purposes.  Typically, we retain data based on the criteria described in the table below:  Type: Database records.  Explanation/typical retention criteria: If you have signed up to receive e-mail alerts (and similar) or to use a PMI digital touchpoint, most of the information in your profile is kept for the duration of the period you continue to receive the alerts, use the digital touchpoint, or respond to our communications. However, some elements of your profile, such as your history of use of the PMI digital touchpoint, naturally go out of date after a period of time, so we delete them automatically after defined periods as appropriate for the purpose for which we collected them.  -  Type: System audit logs.  Explanation/typical retention criteria: System audit logs are retained typically for a period of only a few months.  -  Type: Business analytics.  Explanation/typical retention criteria: Business analytics data is typically collected automatically when you use PMI touchpoints and anonymized/aggregated shortly afterwards. Most of the business analytics data is kept for the duration of our relationship with you as described in the first line of this table above. However, some elements of it, such as some information about whether you opened communications from us (if you choose to share it with us), naturally go out of date after a period of time, so we delete them automatically after defined periods (such as typically after 2 years for e-mail opening data) as appropriate for the purpose for which we collected them."</t>
-  </si>
-  <si>
-    <t>"You may have some or all of the following rights in respect of information about you that we hold:  •  request us to give you access to it;  •  request us to rectify it, update it, or erase it;  •  request us to restrict our using it, in certain circumstances;  •  object to our using it, in certain circumstances;  •  withdraw your consent to our using it;  •  data portability, in certain circumstances;  •  opt out from our using it for direct marketing; and  •  lodge a complaint with the supervisory authority in your country (if there is one).  We offer you easy ways to exercise these rights, such as “unsubscribe” links, or giving you a contact address, in messages you receive.  Some mobile applications we offer might also send you push messages, for instance about new products or services. You can disable these messages through the settings in your phone or the application.  The rights you have depend on the laws of your country. If you are in the European Economic Area, you will have the rights set out in the table below. If you are elsewhere, you can contact us (see the paragraph “who should you contact with questions?” at the end of this notice) to find out more.  Right in respect of the information about you that we hold: To request us to give you access to it.  Further detail (note: certain legal limits to all these rights apply): This is confirmation of: whether or not we process information about you; our name and contact details; the purpose of the processing; the categories of information concerned; the categories of persons with whom we share the information and, where any person is outside the EEA and does not benefit from a European Commission adequacy decision, the appropriate safeguards  for protecting the information; (if we have it) the source of the information, if we did not collect it from you; (to the extent we do any, which will have been brought to your attention) the existence of automated decision-making, including profiling, that produces legal effects concerning you, or significantly affects you in a similar way, and information about the logic involved, as well as the significance and the envisaged consequences of such processing for you; and the criteria for determining the period for which we will store the information. On your request we will provide you with a copy of the information about you that we use (provided this does not affect the rights and freedoms of others).  -  Right in respect of the information about you that we hold: To request us to rectify or update it.  Further detail (note: certain legal limits to all these rights apply): This applies if the information we hold is inaccurate or incomplete.  -  Right in respect of the information about you that we hold: To request us to erase it.  Further detail (note: certain legal limits to all these rights apply): This applies if: the information we hold is no longer necessary in relation to the purposes for which we use it; we use the information on the basis of your consent and you withdraw your consent (in this case, we will remember not to contact you again, unless you tell us you want us to delete all information about you in which case we will respect your wishes); we use the information on the basis of legitimate interest and we find that, following your objection, we do not have an overriding interest in continuing to use it; the information was unlawfully obtained or used; or to comply with a legal obligation.  -  Right in respect of the information about you that we hold: To request us to restrict our processing of it.  Further detail (note: certain legal limits to all these rights apply): This right applies, temporarily while we look into your case, if you: contest the accuracy of the information we use; or have objected to our using the information on the basis of legitimate interest (if you make use of your right in these cases, we will tell you before we use the information again). This right applies also if: our use is unlawful and you oppose the erasure of the data; or we no longer need the data, but you require it to establish a legal case.  -  Right in respect of the information about you that we hold: To object to our processing it.  Further detail (note: certain legal limits to all these rights apply): You have two rights here: if we use information about you for direct marketing: you can “opt out” (without the need to justify it) and we will comply with your request; and if we use the information about you on the basis of legitimate interest for purposes other than direct marketing, you can object to our using it for those purposes, giving an explanation of your particular situation, and we will consider your objection.  -  Right in respect of the information about you that we hold: To withdraw your consent to our using it.  Further detail (note: certain legal limits to all these rights apply): This applies if the legal basis on which we use the information about you is consent. These cases will be clear from the context.  -  Right in respect of the information about you that we hold: To data portability.  Further detail (note: certain legal limits to all these rights apply): If: you have provided data to us; and we use that data, by automated means, and on the basis either of your consent, or on the basis of discharging our contractual obligations to you, then you have the right to receive the data back from us in a commonly used format, and the right to require us to transmit the data to someone else if it is technically feasible for us to do so.  -  Right in respect of the information about you that we hold: to lodge a complaint with the supervisory authority in your country.  Further detail (note: certain legal limits to all these rights apply): Each European Economic Area country must provide for one or more public authorities for this purpose."</t>
-  </si>
-  <si>
-    <t>"If you have any questions, or wish to exercise any of your rights, you can find contact details for the relevant PMI affiliate, and if applicable data protection officer, here. Contact details will also be given in any communications that a PMI affiliate sends you.
-If your country has a data protection authority, you have a right to contact it with any questions or concerns. If the relevant PMI affiliate cannot resolve your questions or concerns, you also have the right to seek judicial remedy before a national court."</t>
-  </si>
-  <si>
-    <t>"According to which country you are in, you may have some additional rights.  If you are in Australia, find out more... If you are in Australia, the following additional information applies to you:  (A) if you do not provide your personal information to us, we may not be able to (as applicable) provide you with the information services that you request; and  (B) our Privacy Policy (available at https://www.pmiprivacy.com/en-au/privacy-policy) explains: (i) how you may access and correct the personal information that we hold about you; (ii) how you can lodge a complaint regarding our handling of your personal information; and (iii) how we will handle any complaint.  If you are in France, find out more... If you are in France, you have the right to give us instructions regarding information we hold about you in the event of your death (specifically, whether we should store or delete it, and whether others should have the right to see it). You may:  (A) issue general instructions to a digital service provider registered with the French data protection supervisory authority (called “CNIL”) (these instructions apply to all use of information about you); or (B) give us specific instructions that apply only to our use of information about you.  Your instructions may require us to transfer information about you to a third party (but where the information contains information about others, our obligation to respect also their privacy rights might mean that we can’t follow your instructions to the letter). You may appoint a third party to be responsible for ensuring your instructions are followed. If you do not appoint a third party in that way, your successors will (unless you specify otherwise in your instructions) be entitled to exercise your rights over information about you after your death:  (i) in order to administer your estate (in which case your successors will be able to access information about you to identify and obtain information that could be useful to administer your estate, including any digital goods or data that could be considered a family memory that is transferable to your successors); and (ii) to ensure that parties using information about you take into account your death (such as closing your account, and restricting the use of, or updating, information about you). You may amend or revoke your instructions at any time. For further information on the processing of information about you in the event of your death, see Article 40-1 of the law 78-17 dated 6 January 1978. When you die, by default, you will stop using your account and we will delete information about you in accordance with our retention policies (see the paragraph “How long will information about you be kept?” for details). If you are in the Philippines, find out more...  •  If you are in the Philippines, you may have rights in addition to those set out in this notice in accordance with the Philippine Data Privacy Act and its implementing rules and regulations, including the National Privacy Commission’s Privacy Policy Office Advisory Opinion No. 2018-031.  If you are in Taiwan, find out more…  If you are in Taiwan, the following additional information applies to you:  If you do not provide your personal information to us, we may not be able to (as applicable) provide you with the information, products or services that you request.  If you are in Switzerland, find out more…  If you are in Switzerland, information about you may be transferred outside of Switzerland, including to a country or territory that may not have equivalent data protection standards. In such cases, the transfer will be subject to appropriate safeguards such as the Standard Contractual Clauses in accordance with the new Data Protection Act and guidance from the Federal Data Protection and Information Commissioner."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -132,8 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -470,97 +490,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9CB31D-B8CC-764F-BDB0-FDC3B11791FB}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770D6CE7-81C4-654A-B4AA-44C688B43FB5}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" customWidth="1"/>
+    <col min="1" max="1" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="273" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="400" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
